--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H2">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N2">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O2">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P2">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q2">
-        <v>9.471977914263853</v>
+        <v>10.4183586742</v>
       </c>
       <c r="R2">
-        <v>9.471977914263853</v>
+        <v>93.7652280678</v>
       </c>
       <c r="S2">
-        <v>0.01361905297419284</v>
+        <v>0.01300511773297084</v>
       </c>
       <c r="T2">
-        <v>0.01361905297419284</v>
+        <v>0.01300511773297085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H3">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I3">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J3">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N3">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O3">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P3">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q3">
-        <v>170.5793985764649</v>
+        <v>173.9088315851653</v>
       </c>
       <c r="R3">
-        <v>170.5793985764649</v>
+        <v>1565.179484266488</v>
       </c>
       <c r="S3">
-        <v>0.2452634377472975</v>
+        <v>0.2170884013783624</v>
       </c>
       <c r="T3">
-        <v>0.2452634377472975</v>
+        <v>0.2170884013783625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H4">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I4">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J4">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N4">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O4">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P4">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q4">
-        <v>1.121792789559327</v>
+        <v>1.17329662564</v>
       </c>
       <c r="R4">
-        <v>1.121792789559327</v>
+        <v>10.55966963076</v>
       </c>
       <c r="S4">
-        <v>0.001612942467282283</v>
+        <v>0.001464612731171622</v>
       </c>
       <c r="T4">
-        <v>0.001612942467282283</v>
+        <v>0.001464612731171622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H5">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I5">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J5">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N5">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O5">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P5">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q5">
-        <v>0.9739838722367322</v>
+        <v>1.103904594997333</v>
       </c>
       <c r="R5">
-        <v>0.9739838722367322</v>
+        <v>9.935141354975999</v>
       </c>
       <c r="S5">
-        <v>0.001400419011960127</v>
+        <v>0.001377991454590635</v>
       </c>
       <c r="T5">
-        <v>0.001400419011960127</v>
+        <v>0.001377991454590635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H6">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I6">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J6">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N6">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O6">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P6">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q6">
-        <v>13.8503765840686</v>
+        <v>15.20661141693866</v>
       </c>
       <c r="R6">
-        <v>13.8503765840686</v>
+        <v>136.859502752448</v>
       </c>
       <c r="S6">
-        <v>0.01991442696745459</v>
+        <v>0.01898223875576176</v>
       </c>
       <c r="T6">
-        <v>0.01991442696745459</v>
+        <v>0.01898223875576176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H7">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J7">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N7">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O7">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P7">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q7">
-        <v>13.60042267585542</v>
+        <v>14.850283940325</v>
       </c>
       <c r="R7">
-        <v>13.60042267585542</v>
+        <v>133.652555462925</v>
       </c>
       <c r="S7">
-        <v>0.01955503682234715</v>
+        <v>0.01853743925041079</v>
       </c>
       <c r="T7">
-        <v>0.01955503682234715</v>
+        <v>0.01853743925041079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H8">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J8">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N8">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O8">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P8">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q8">
-        <v>244.9279275598307</v>
+        <v>247.888905491937</v>
       </c>
       <c r="R8">
-        <v>244.9279275598307</v>
+        <v>2231.000149427432</v>
       </c>
       <c r="S8">
-        <v>0.3521636611159523</v>
+        <v>0.3094368797844707</v>
       </c>
       <c r="T8">
-        <v>0.3521636611159523</v>
+        <v>0.3094368797844708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H9">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J9">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N9">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O9">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P9">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q9">
-        <v>1.610736029035549</v>
+        <v>1.672411997115</v>
       </c>
       <c r="R9">
-        <v>1.610736029035549</v>
+        <v>15.051707974035</v>
       </c>
       <c r="S9">
-        <v>0.002315957607316808</v>
+        <v>0.002087652729251385</v>
       </c>
       <c r="T9">
-        <v>0.002315957607316808</v>
+        <v>0.002087652729251385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H10">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I10">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J10">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N10">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O10">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P10">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q10">
-        <v>1.398503296965872</v>
+        <v>1.573500893124</v>
       </c>
       <c r="R10">
-        <v>1.398503296965872</v>
+        <v>14.161508038116</v>
       </c>
       <c r="S10">
-        <v>0.002010803937504937</v>
+        <v>0.001964183131714241</v>
       </c>
       <c r="T10">
-        <v>0.002010803937504937</v>
+        <v>0.001964183131714242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H11">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I11">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J11">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N11">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O11">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P11">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q11">
-        <v>19.8871848591872</v>
+        <v>21.675438941352</v>
       </c>
       <c r="R11">
-        <v>19.8871848591872</v>
+        <v>195.078950472168</v>
       </c>
       <c r="S11">
-        <v>0.0285943048597032</v>
+        <v>0.02705720201821996</v>
       </c>
       <c r="T11">
-        <v>0.0285943048597032</v>
+        <v>0.02705720201821996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.43944251125924</v>
+        <v>0.3858173333333334</v>
       </c>
       <c r="H12">
-        <v>2.43944251125924</v>
+        <v>1.157452</v>
       </c>
       <c r="I12">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="J12">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N12">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O12">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P12">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q12">
-        <v>10.53878613529778</v>
+        <v>1.798574308233333</v>
       </c>
       <c r="R12">
-        <v>10.53878613529778</v>
+        <v>16.1871687741</v>
       </c>
       <c r="S12">
-        <v>0.01515293721749184</v>
+        <v>0.002245139696331986</v>
       </c>
       <c r="T12">
-        <v>0.01515293721749184</v>
+        <v>0.002245139696331986</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.43944251125924</v>
+        <v>0.3858173333333334</v>
       </c>
       <c r="H13">
-        <v>2.43944251125924</v>
+        <v>1.157452</v>
       </c>
       <c r="I13">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="J13">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N13">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O13">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P13">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q13">
-        <v>189.7913843293411</v>
+        <v>30.02276714071511</v>
       </c>
       <c r="R13">
-        <v>189.7913843293411</v>
+        <v>270.204904266436</v>
       </c>
       <c r="S13">
-        <v>0.2728869240007696</v>
+        <v>0.03747707614458284</v>
       </c>
       <c r="T13">
-        <v>0.2728869240007696</v>
+        <v>0.03747707614458284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.43944251125924</v>
+        <v>0.3858173333333334</v>
       </c>
       <c r="H14">
-        <v>2.43944251125924</v>
+        <v>1.157452</v>
       </c>
       <c r="I14">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="J14">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N14">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O14">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P14">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q14">
-        <v>1.248137865638559</v>
+        <v>0.2025521709133334</v>
       </c>
       <c r="R14">
-        <v>1.248137865638559</v>
+        <v>1.82296953822</v>
       </c>
       <c r="S14">
-        <v>0.001794604660725564</v>
+        <v>0.0002528435535935326</v>
       </c>
       <c r="T14">
-        <v>0.001794604660725564</v>
+        <v>0.0002528435535935327</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.43944251125924</v>
+        <v>0.3858173333333334</v>
       </c>
       <c r="H15">
-        <v>2.43944251125924</v>
+        <v>1.157452</v>
       </c>
       <c r="I15">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="J15">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N15">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O15">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P15">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q15">
-        <v>1.083681552220961</v>
+        <v>0.1905726713191111</v>
       </c>
       <c r="R15">
-        <v>1.083681552220961</v>
+        <v>1.715154041872</v>
       </c>
       <c r="S15">
-        <v>0.001558145151988545</v>
+        <v>0.0002378896815416185</v>
       </c>
       <c r="T15">
-        <v>0.001558145151988545</v>
+        <v>0.0002378896815416185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.157452</v>
+      </c>
+      <c r="I16">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J16">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.804242666666666</v>
+      </c>
+      <c r="N16">
+        <v>20.412728</v>
+      </c>
+      <c r="O16">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="P16">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="Q16">
+        <v>2.625194761006223</v>
+      </c>
+      <c r="R16">
+        <v>23.626752849056</v>
+      </c>
+      <c r="S16">
+        <v>0.003277000534010295</v>
+      </c>
+      <c r="T16">
+        <v>0.003277000534010295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.894691</v>
+      </c>
+      <c r="I17">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J17">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.661725</v>
+      </c>
+      <c r="N17">
+        <v>13.985175</v>
+      </c>
+      <c r="O17">
+        <v>0.05162433427636418</v>
+      </c>
+      <c r="P17">
+        <v>0.05162433427636419</v>
+      </c>
+      <c r="Q17">
+        <v>1.390267800658333</v>
+      </c>
+      <c r="R17">
+        <v>12.512410205925</v>
+      </c>
+      <c r="S17">
+        <v>0.001735455362339829</v>
+      </c>
+      <c r="T17">
+        <v>0.00173545536233983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.894691</v>
+      </c>
+      <c r="I18">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J18">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>77.81601433333333</v>
+      </c>
+      <c r="N18">
+        <v>233.448043</v>
+      </c>
+      <c r="O18">
+        <v>0.8617410799646796</v>
+      </c>
+      <c r="P18">
+        <v>0.8617410799646797</v>
+      </c>
+      <c r="Q18">
+        <v>23.20709589330144</v>
+      </c>
+      <c r="R18">
+        <v>208.863863039713</v>
+      </c>
+      <c r="S18">
+        <v>0.02896915183772023</v>
+      </c>
+      <c r="T18">
+        <v>0.02896915183772024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.894691</v>
+      </c>
+      <c r="I19">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J19">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.524995</v>
+      </c>
+      <c r="N19">
+        <v>1.574985</v>
+      </c>
+      <c r="O19">
+        <v>0.005813838734249621</v>
+      </c>
+      <c r="P19">
+        <v>0.005813838734249622</v>
+      </c>
+      <c r="Q19">
+        <v>0.1565694338483333</v>
+      </c>
+      <c r="R19">
+        <v>1.409124904635</v>
+      </c>
+      <c r="S19">
+        <v>0.0001954438299023642</v>
+      </c>
+      <c r="T19">
+        <v>0.0001954438299023643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.894691</v>
+      </c>
+      <c r="I20">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J20">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4939453333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.481836</v>
+      </c>
+      <c r="O20">
+        <v>0.005469992117134779</v>
+      </c>
+      <c r="P20">
+        <v>0.00546999211713478</v>
+      </c>
+      <c r="Q20">
+        <v>0.1473094814084444</v>
+      </c>
+      <c r="R20">
+        <v>1.325785332676</v>
+      </c>
+      <c r="S20">
+        <v>0.0001838847373957211</v>
+      </c>
+      <c r="T20">
+        <v>0.0001838847373957211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.894691</v>
+      </c>
+      <c r="I21">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J21">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.804242666666666</v>
+      </c>
+      <c r="N21">
+        <v>20.412728</v>
+      </c>
+      <c r="O21">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="P21">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="Q21">
+        <v>2.029231558560889</v>
+      </c>
+      <c r="R21">
+        <v>18.263084027048</v>
+      </c>
+      <c r="S21">
+        <v>0.002533066498458859</v>
+      </c>
+      <c r="T21">
+        <v>0.00253306649845886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.766917</v>
+      </c>
+      <c r="H22">
+        <v>8.300751</v>
+      </c>
+      <c r="I22">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J22">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.661725</v>
+      </c>
+      <c r="N22">
+        <v>13.985175</v>
+      </c>
+      <c r="O22">
+        <v>0.05162433427636418</v>
+      </c>
+      <c r="P22">
+        <v>0.05162433427636419</v>
+      </c>
+      <c r="Q22">
+        <v>12.898606151825</v>
+      </c>
+      <c r="R22">
+        <v>116.087455366425</v>
+      </c>
+      <c r="S22">
+        <v>0.01610118223431073</v>
+      </c>
+      <c r="T22">
+        <v>0.01610118223431073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.766917</v>
+      </c>
+      <c r="H23">
+        <v>8.300751</v>
+      </c>
+      <c r="I23">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J23">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>77.81601433333333</v>
+      </c>
+      <c r="N23">
+        <v>233.448043</v>
+      </c>
+      <c r="O23">
+        <v>0.8617410799646796</v>
+      </c>
+      <c r="P23">
+        <v>0.8617410799646797</v>
+      </c>
+      <c r="Q23">
+        <v>215.3104529311436</v>
+      </c>
+      <c r="R23">
+        <v>1937.794076380293</v>
+      </c>
+      <c r="S23">
+        <v>0.2687695708195433</v>
+      </c>
+      <c r="T23">
+        <v>0.2687695708195434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="H16">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="I16">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="J16">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.3171459175915</v>
-      </c>
-      <c r="N16">
-        <v>6.3171459175915</v>
-      </c>
-      <c r="O16">
-        <v>0.07066607728517048</v>
-      </c>
-      <c r="P16">
-        <v>0.07066607728517048</v>
-      </c>
-      <c r="Q16">
-        <v>15.41031430120046</v>
-      </c>
-      <c r="R16">
-        <v>15.41031430120046</v>
-      </c>
-      <c r="S16">
-        <v>0.02215734545801269</v>
-      </c>
-      <c r="T16">
-        <v>0.02215734545801269</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.766917</v>
+      </c>
+      <c r="H24">
+        <v>8.300751</v>
+      </c>
+      <c r="I24">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J24">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.524995</v>
+      </c>
+      <c r="N24">
+        <v>1.574985</v>
+      </c>
+      <c r="O24">
+        <v>0.005813838734249621</v>
+      </c>
+      <c r="P24">
+        <v>0.005813838734249622</v>
+      </c>
+      <c r="Q24">
+        <v>1.452617590415</v>
+      </c>
+      <c r="R24">
+        <v>13.073558313735</v>
+      </c>
+      <c r="S24">
+        <v>0.001813285890330717</v>
+      </c>
+      <c r="T24">
+        <v>0.001813285890330717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.766917</v>
+      </c>
+      <c r="H25">
+        <v>8.300751</v>
+      </c>
+      <c r="I25">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J25">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4939453333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.481836</v>
+      </c>
+      <c r="O25">
+        <v>0.005469992117134779</v>
+      </c>
+      <c r="P25">
+        <v>0.00546999211713478</v>
+      </c>
+      <c r="Q25">
+        <v>1.366705739870667</v>
+      </c>
+      <c r="R25">
+        <v>12.300351658836</v>
+      </c>
+      <c r="S25">
+        <v>0.001706043111892563</v>
+      </c>
+      <c r="T25">
+        <v>0.001706043111892563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.766917</v>
+      </c>
+      <c r="H26">
+        <v>8.300751</v>
+      </c>
+      <c r="I26">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J26">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.804242666666666</v>
+      </c>
+      <c r="N26">
+        <v>20.412728</v>
+      </c>
+      <c r="O26">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="P26">
+        <v>0.07535075490757169</v>
+      </c>
+      <c r="Q26">
+        <v>18.82677470652533</v>
+      </c>
+      <c r="R26">
+        <v>169.440972358728</v>
+      </c>
+      <c r="S26">
+        <v>0.02350124710112081</v>
+      </c>
+      <c r="T26">
+        <v>0.02350124710112081</v>
       </c>
     </row>
   </sheetData>
